--- a/Experimentos2/TOPSISPSO.xlsx
+++ b/Experimentos2/TOPSISPSO.xlsx
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.592</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.443</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.253</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.365</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.392</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.372</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.487</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.257</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.709</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.71</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.388</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.532</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.581</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.533</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.724</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.45</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.615</v>
+        <v>0.367</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.592</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.724</v>
+        <v>0.569</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.732</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.421</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.656</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.343</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8090000000000001</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.496</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.511</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.915</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -927,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.714</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.773</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.037</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.129</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.247</v>
+        <v>2.206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.714</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.773</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.037</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.129</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.247</v>
+        <v>2.206</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.116</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.081</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.116</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.081</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3</v>
+        <v>0.157</v>
       </c>
     </row>
   </sheetData>
@@ -1641,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.908</v>
+        <v>0.06</v>
       </c>
       <c r="C2">
-        <v>0.534</v>
+        <v>0.052</v>
       </c>
       <c r="D2">
-        <v>0.922</v>
+        <v>0.415</v>
       </c>
       <c r="E2">
-        <v>0.447</v>
+        <v>0.802</v>
       </c>
       <c r="F2">
-        <v>0.749</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,19 +1661,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="C3">
-        <v>0.51</v>
+        <v>0.183</v>
       </c>
       <c r="D3">
-        <v>0.964</v>
+        <v>0.439</v>
       </c>
       <c r="E3">
-        <v>0.463</v>
+        <v>0.717</v>
       </c>
       <c r="F3">
-        <v>0.344</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1681,19 +1681,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="C4">
-        <v>0.304</v>
+        <v>0.143</v>
       </c>
       <c r="D4">
-        <v>0.298</v>
+        <v>0.588</v>
       </c>
       <c r="E4">
-        <v>0.013</v>
+        <v>0.175</v>
       </c>
       <c r="F4">
-        <v>0.842</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1701,19 +1701,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.319</v>
+        <v>0.28</v>
       </c>
       <c r="C5">
-        <v>0.475</v>
+        <v>0.726</v>
       </c>
       <c r="D5">
-        <v>0.191</v>
+        <v>0.983</v>
       </c>
       <c r="E5">
-        <v>0.391</v>
+        <v>0.328</v>
       </c>
       <c r="F5">
-        <v>0.918</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1721,19 +1721,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.665</v>
+        <v>0.973</v>
       </c>
       <c r="C6">
-        <v>0.371</v>
+        <v>0.382</v>
       </c>
       <c r="D6">
-        <v>0.477</v>
+        <v>0.771</v>
       </c>
       <c r="E6">
-        <v>0.052</v>
+        <v>0.119</v>
       </c>
       <c r="F6">
-        <v>0.903</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1741,19 +1741,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.367</v>
+        <v>0.661</v>
       </c>
       <c r="C7">
-        <v>0.008999999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="D7">
-        <v>0.325</v>
+        <v>0.857</v>
       </c>
       <c r="E7">
-        <v>0.6879999999999999</v>
+        <v>0.638</v>
       </c>
       <c r="F7">
-        <v>0.9389999999999999</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1761,19 +1761,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.199</v>
+        <v>0.191</v>
       </c>
       <c r="C8">
-        <v>0.724</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D8">
-        <v>0.444</v>
+        <v>0.222</v>
       </c>
       <c r="E8">
-        <v>0.9379999999999999</v>
+        <v>0.417</v>
       </c>
       <c r="F8">
-        <v>0.836</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1781,19 +1781,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.315</v>
+        <v>0.214</v>
       </c>
       <c r="C9">
-        <v>0.902</v>
+        <v>0.523</v>
       </c>
       <c r="D9">
-        <v>0.016</v>
+        <v>0.998</v>
       </c>
       <c r="E9">
-        <v>0.039</v>
+        <v>0.771</v>
       </c>
       <c r="F9">
-        <v>0.213</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.372</v>
+        <v>0.628</v>
       </c>
       <c r="C10">
-        <v>0.149</v>
+        <v>0.493</v>
       </c>
       <c r="D10">
-        <v>0.785</v>
+        <v>0.052</v>
       </c>
       <c r="E10">
-        <v>0.495</v>
+        <v>0.608</v>
       </c>
       <c r="F10">
-        <v>0.155</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1821,19 +1821,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.636</v>
+        <v>0.042</v>
       </c>
       <c r="C11">
-        <v>0.374</v>
+        <v>0.036</v>
       </c>
       <c r="D11">
-        <v>0.645</v>
+        <v>0.29</v>
       </c>
       <c r="E11">
-        <v>0.313</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F11">
-        <v>0.524</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1841,19 +1841,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.334</v>
+        <v>0.173</v>
       </c>
       <c r="C12">
-        <v>0.356</v>
+        <v>0.128</v>
       </c>
       <c r="D12">
-        <v>0.675</v>
+        <v>0.307</v>
       </c>
       <c r="E12">
-        <v>0.324</v>
+        <v>0.502</v>
       </c>
       <c r="F12">
-        <v>0.241</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1861,19 +1861,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="C13">
-        <v>0.212</v>
+        <v>0.099</v>
       </c>
       <c r="D13">
-        <v>0.209</v>
+        <v>0.412</v>
       </c>
       <c r="E13">
-        <v>0.008999999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="F13">
-        <v>0.589</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1881,19 +1881,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.217</v>
+        <v>0.189</v>
       </c>
       <c r="C14">
-        <v>0.331</v>
+        <v>0.506</v>
       </c>
       <c r="D14">
-        <v>0.134</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="E14">
-        <v>0.274</v>
+        <v>0.23</v>
       </c>
       <c r="F14">
-        <v>0.643</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1901,19 +1901,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.457</v>
+        <v>0.673</v>
       </c>
       <c r="C15">
-        <v>0.257</v>
+        <v>0.265</v>
       </c>
       <c r="D15">
-        <v>0.334</v>
+        <v>0.54</v>
       </c>
       <c r="E15">
-        <v>0.036</v>
+        <v>0.083</v>
       </c>
       <c r="F15">
-        <v>0.632</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1921,19 +1921,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.246</v>
+        <v>0.452</v>
       </c>
       <c r="C16">
-        <v>0.003</v>
+        <v>0.065</v>
       </c>
       <c r="D16">
-        <v>0.228</v>
+        <v>0.6</v>
       </c>
       <c r="E16">
-        <v>0.482</v>
+        <v>0.447</v>
       </c>
       <c r="F16">
-        <v>0.657</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1941,19 +1941,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.126</v>
+        <v>0.121</v>
       </c>
       <c r="C17">
-        <v>0.504</v>
+        <v>0.657</v>
       </c>
       <c r="D17">
-        <v>0.311</v>
+        <v>0.155</v>
       </c>
       <c r="E17">
-        <v>0.657</v>
+        <v>0.292</v>
       </c>
       <c r="F17">
-        <v>0.585</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1961,19 +1961,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.206</v>
+        <v>0.135</v>
       </c>
       <c r="C18">
-        <v>0.628</v>
+        <v>0.362</v>
       </c>
       <c r="D18">
-        <v>0.011</v>
+        <v>0.699</v>
       </c>
       <c r="E18">
-        <v>0.028</v>
+        <v>0.54</v>
       </c>
       <c r="F18">
-        <v>0.149</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1981,19 +1981,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.244</v>
+        <v>0.423</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.341</v>
       </c>
       <c r="D19">
-        <v>0.55</v>
+        <v>0.036</v>
       </c>
       <c r="E19">
-        <v>0.347</v>
+        <v>0.426</v>
       </c>
       <c r="F19">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2001,19 +2001,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.445</v>
+        <v>0.008</v>
       </c>
       <c r="C20">
-        <v>0.262</v>
+        <v>0.041</v>
       </c>
       <c r="D20">
-        <v>0.392</v>
+        <v>0.233</v>
       </c>
       <c r="E20">
-        <v>0.118</v>
+        <v>0.377</v>
       </c>
       <c r="F20">
-        <v>0.367</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2021,19 +2021,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.318</v>
+        <v>-0.109</v>
       </c>
       <c r="C21">
-        <v>0.252</v>
+        <v>0.017</v>
       </c>
       <c r="D21">
-        <v>0.41</v>
+        <v>0.243</v>
       </c>
       <c r="E21">
-        <v>0.122</v>
+        <v>0.339</v>
       </c>
       <c r="F21">
-        <v>0.529</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2041,19 +2041,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.181</v>
+        <v>0.035</v>
       </c>
       <c r="C22">
-        <v>0.179</v>
+        <v>0.024</v>
       </c>
       <c r="D22">
-        <v>0.128</v>
+        <v>0.309</v>
       </c>
       <c r="E22">
-        <v>0.008999999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="F22">
-        <v>0.553</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2061,19 +2061,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.265</v>
+        <v>-0.126</v>
       </c>
       <c r="C23">
-        <v>0.237</v>
+        <v>-0.082</v>
       </c>
       <c r="D23">
-        <v>0.083</v>
+        <v>0.482</v>
       </c>
       <c r="E23">
-        <v>0.104</v>
+        <v>0.161</v>
       </c>
       <c r="F23">
-        <v>0.5669999999999999</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2081,19 +2081,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.361</v>
+        <v>-0.55</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>-0.02</v>
       </c>
       <c r="D24">
-        <v>0.204</v>
+        <v>0.389</v>
       </c>
       <c r="E24">
-        <v>0.018</v>
+        <v>0.064</v>
       </c>
       <c r="F24">
-        <v>0.571</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2101,19 +2101,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.273</v>
+        <v>-0.359</v>
       </c>
       <c r="C25">
-        <v>0.07199999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="D25">
-        <v>0.14</v>
+        <v>0.427</v>
       </c>
       <c r="E25">
-        <v>0.179</v>
+        <v>0.303</v>
       </c>
       <c r="F25">
-        <v>0.571</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2121,19 +2121,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.22</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="C26">
-        <v>0.321</v>
+        <v>-0.123</v>
       </c>
       <c r="D26">
-        <v>0.19</v>
+        <v>0.148</v>
       </c>
       <c r="E26">
-        <v>0.242</v>
+        <v>0.202</v>
       </c>
       <c r="F26">
-        <v>0.575</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2141,19 +2141,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.251</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="C27">
-        <v>0.382</v>
+        <v>-0.046</v>
       </c>
       <c r="D27">
-        <v>0.008</v>
+        <v>0.488</v>
       </c>
       <c r="E27">
-        <v>0.016</v>
+        <v>0.364</v>
       </c>
       <c r="F27">
-        <v>0.597</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2161,19 +2161,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.264</v>
+        <v>-0.339</v>
       </c>
       <c r="C28">
-        <v>0.118</v>
+        <v>-0.041</v>
       </c>
       <c r="D28">
-        <v>0.334</v>
+        <v>0.074</v>
       </c>
       <c r="E28">
-        <v>0.131</v>
+        <v>0.289</v>
       </c>
       <c r="F28">
-        <v>0.601</v>
+        <v>0.238</v>
       </c>
     </row>
   </sheetData>
@@ -2391,19 +2391,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.732</v>
+        <v>0.138</v>
       </c>
       <c r="C11">
-        <v>0.421</v>
+        <v>0.083</v>
       </c>
       <c r="D11">
-        <v>0.656</v>
+        <v>0.301</v>
       </c>
       <c r="E11">
-        <v>0.343</v>
+        <v>0.591</v>
       </c>
       <c r="F11">
-        <v>0.8090000000000001</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2411,19 +2411,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.44</v>
+        <v>0.279</v>
       </c>
       <c r="C12">
-        <v>0.408</v>
+        <v>0.18</v>
       </c>
       <c r="D12">
-        <v>0.6850000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="E12">
-        <v>0.352</v>
+        <v>0.53</v>
       </c>
       <c r="F12">
-        <v>0.328</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2431,19 +2431,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
       <c r="C13">
-        <v>0.269</v>
+        <v>0.156</v>
       </c>
       <c r="D13">
-        <v>0.219</v>
+        <v>0.422</v>
       </c>
       <c r="E13">
-        <v>0.036</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
-        <v>0.622</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2451,19 +2451,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.341</v>
+        <v>0.313</v>
       </c>
       <c r="C14">
-        <v>0.393</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D14">
-        <v>0.143</v>
+        <v>0.697</v>
       </c>
       <c r="E14">
-        <v>0.294</v>
+        <v>0.25</v>
       </c>
       <c r="F14">
-        <v>0.653</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2471,19 +2471,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.589</v>
+        <v>0.805</v>
       </c>
       <c r="C15">
-        <v>0.323</v>
+        <v>0.331</v>
       </c>
       <c r="D15">
-        <v>0.345</v>
+        <v>0.551</v>
       </c>
       <c r="E15">
-        <v>0.066</v>
+        <v>0.113</v>
       </c>
       <c r="F15">
-        <v>0.638</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2491,19 +2491,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.386</v>
+        <v>0.592</v>
       </c>
       <c r="C16">
-        <v>0.074</v>
+        <v>0.136</v>
       </c>
       <c r="D16">
-        <v>0.238</v>
+        <v>0.61</v>
       </c>
       <c r="E16">
-        <v>0.502</v>
+        <v>0.467</v>
       </c>
       <c r="F16">
-        <v>0.661</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2511,19 +2511,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.276</v>
+        <v>0.271</v>
       </c>
       <c r="C17">
-        <v>0.579</v>
+        <v>0.732</v>
       </c>
       <c r="D17">
-        <v>0.321</v>
+        <v>0.165</v>
       </c>
       <c r="E17">
-        <v>0.673</v>
+        <v>0.308</v>
       </c>
       <c r="F17">
-        <v>0.588</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2531,19 +2531,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.364</v>
+        <v>0.293</v>
       </c>
       <c r="C18">
-        <v>0.707</v>
+        <v>0.441</v>
       </c>
       <c r="D18">
-        <v>0.021</v>
+        <v>0.709</v>
       </c>
       <c r="E18">
-        <v>0.04</v>
+        <v>0.552</v>
       </c>
       <c r="F18">
-        <v>0.152</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2551,19 +2551,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.41</v>
+        <v>0.589</v>
       </c>
       <c r="C19">
-        <v>0.183</v>
+        <v>0.424</v>
       </c>
       <c r="D19">
-        <v>0.5600000000000001</v>
+        <v>0.046</v>
       </c>
       <c r="E19">
-        <v>0.365</v>
+        <v>0.444</v>
       </c>
       <c r="F19">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2571,16 +2571,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>0.146</v>
       </c>
       <c r="C20">
-        <v>0.6830000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>0.534</v>
       </c>
       <c r="E20">
-        <v>0.461</v>
+        <v>0.968</v>
       </c>
       <c r="F20">
         <v>0.8</v>
@@ -2591,19 +2591,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.758</v>
+        <v>0.17</v>
       </c>
       <c r="C21">
-        <v>0.66</v>
+        <v>0.197</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E21">
-        <v>0.474</v>
+        <v>0.869</v>
       </c>
       <c r="F21">
-        <v>0.857</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2611,19 +2611,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3</v>
+        <v>0.156</v>
       </c>
       <c r="C22">
-        <v>0.448</v>
+        <v>0.18</v>
       </c>
       <c r="D22">
-        <v>0.347</v>
+        <v>0.731</v>
       </c>
       <c r="E22">
-        <v>0.045</v>
+        <v>0.241</v>
       </c>
       <c r="F22">
-        <v>0.8</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2631,19 +2631,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.606</v>
+        <v>0.187</v>
       </c>
       <c r="C23">
-        <v>0.63</v>
+        <v>0.486</v>
       </c>
       <c r="D23">
-        <v>0.226</v>
+        <v>0.8</v>
       </c>
       <c r="E23">
-        <v>0.398</v>
+        <v>0.411</v>
       </c>
       <c r="F23">
-        <v>0.8</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2651,19 +2651,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.95</v>
+        <v>0.255</v>
       </c>
       <c r="C24">
-        <v>0.523</v>
+        <v>0.311</v>
       </c>
       <c r="D24">
-        <v>0.549</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E24">
-        <v>0.08400000000000001</v>
+        <v>0.177</v>
       </c>
       <c r="F24">
-        <v>0.8</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2671,19 +2671,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.659</v>
+        <v>0.233</v>
       </c>
       <c r="C25">
-        <v>0.146</v>
+        <v>0.168</v>
       </c>
       <c r="D25">
-        <v>0.378</v>
+        <v>0.8</v>
       </c>
       <c r="E25">
-        <v>0.681</v>
+        <v>0.77</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2691,19 +2691,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.496</v>
+        <v>0.199</v>
       </c>
       <c r="C26">
-        <v>0.9</v>
+        <v>0.609</v>
       </c>
       <c r="D26">
-        <v>0.511</v>
+        <v>0.313</v>
       </c>
       <c r="E26">
-        <v>0.915</v>
+        <v>0.51</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2711,19 +2711,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.615</v>
+        <v>0.207</v>
       </c>
       <c r="C27">
+        <v>0.395</v>
+      </c>
+      <c r="D27">
         <v>0.8</v>
       </c>
-      <c r="D27">
-        <v>0.029</v>
-      </c>
       <c r="E27">
-        <v>0.056</v>
+        <v>0.916</v>
       </c>
       <c r="F27">
-        <v>0.749</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2731,19 +2731,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.674</v>
+        <v>0.25</v>
       </c>
       <c r="C28">
-        <v>0.301</v>
+        <v>0.383</v>
       </c>
       <c r="D28">
-        <v>0.894</v>
+        <v>0.12</v>
       </c>
       <c r="E28">
-        <v>0.496</v>
+        <v>0.733</v>
       </c>
       <c r="F28">
-        <v>0.709</v>
+        <v>0.351</v>
       </c>
     </row>
   </sheetData>
@@ -2961,19 +2961,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.732</v>
+        <v>0.096</v>
       </c>
       <c r="C11">
-        <v>0.421</v>
+        <v>0.047</v>
       </c>
       <c r="D11">
-        <v>0.011</v>
+        <v>0.301</v>
       </c>
       <c r="E11">
-        <v>0.03</v>
+        <v>0.591</v>
       </c>
       <c r="F11">
-        <v>0.8090000000000001</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2981,19 +2981,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.44</v>
+        <v>0.106</v>
       </c>
       <c r="C12">
-        <v>0.408</v>
+        <v>0.052</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0.317</v>
       </c>
       <c r="E12">
-        <v>0.028</v>
+        <v>0.53</v>
       </c>
       <c r="F12">
-        <v>0.328</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3001,19 +3001,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.119</v>
+        <v>0.114</v>
       </c>
       <c r="C13">
-        <v>0.269</v>
+        <v>0.057</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>0.422</v>
       </c>
       <c r="E13">
-        <v>0.027</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
-        <v>0.622</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3021,19 +3021,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.341</v>
+        <v>0.124</v>
       </c>
       <c r="C14">
-        <v>0.393</v>
+        <v>0.062</v>
       </c>
       <c r="D14">
-        <v>0.008999999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="E14">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="F14">
-        <v>0.653</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3041,19 +3041,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.589</v>
+        <v>0.132</v>
       </c>
       <c r="C15">
-        <v>0.323</v>
+        <v>0.066</v>
       </c>
       <c r="D15">
-        <v>0.011</v>
+        <v>0.551</v>
       </c>
       <c r="E15">
-        <v>0.03</v>
+        <v>0.113</v>
       </c>
       <c r="F15">
-        <v>0.638</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3061,19 +3061,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.386</v>
+        <v>0.14</v>
       </c>
       <c r="C16">
-        <v>0.074</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D16">
-        <v>0.01</v>
+        <v>0.61</v>
       </c>
       <c r="E16">
-        <v>0.02</v>
+        <v>0.467</v>
       </c>
       <c r="F16">
-        <v>0.661</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3081,19 +3081,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.276</v>
+        <v>0.15</v>
       </c>
       <c r="C17">
-        <v>0.579</v>
+        <v>0.075</v>
       </c>
       <c r="D17">
-        <v>0.01</v>
+        <v>0.165</v>
       </c>
       <c r="E17">
-        <v>0.016</v>
+        <v>0.308</v>
       </c>
       <c r="F17">
-        <v>0.588</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3101,19 +3101,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.364</v>
+        <v>0.158</v>
       </c>
       <c r="C18">
-        <v>0.707</v>
+        <v>0.079</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
+        <v>0.709</v>
       </c>
       <c r="E18">
-        <v>0.012</v>
+        <v>0.552</v>
       </c>
       <c r="F18">
-        <v>0.152</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3121,19 +3121,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.41</v>
+        <v>0.166</v>
       </c>
       <c r="C19">
-        <v>0.183</v>
+        <v>0.083</v>
       </c>
       <c r="D19">
-        <v>0.01</v>
+        <v>0.046</v>
       </c>
       <c r="E19">
-        <v>0.018</v>
+        <v>0.444</v>
       </c>
       <c r="F19">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3141,19 +3141,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.732</v>
+        <v>0.146</v>
       </c>
       <c r="C20">
-        <v>0.421</v>
+        <v>0.124</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>0.301</v>
       </c>
       <c r="E20">
-        <v>0.461</v>
+        <v>0.591</v>
       </c>
       <c r="F20">
-        <v>0.8090000000000001</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3161,19 +3161,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="C21">
-        <v>0.408</v>
+        <v>0.197</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.317</v>
       </c>
       <c r="E21">
-        <v>0.474</v>
+        <v>0.53</v>
       </c>
       <c r="F21">
-        <v>0.328</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3181,19 +3181,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.119</v>
+        <v>0.156</v>
       </c>
       <c r="C22">
-        <v>0.269</v>
+        <v>0.18</v>
       </c>
       <c r="D22">
-        <v>0.347</v>
+        <v>0.422</v>
       </c>
       <c r="E22">
-        <v>0.045</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
-        <v>0.622</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3201,19 +3201,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.341</v>
+        <v>0.187</v>
       </c>
       <c r="C23">
-        <v>0.393</v>
+        <v>0.486</v>
       </c>
       <c r="D23">
-        <v>0.226</v>
+        <v>0.697</v>
       </c>
       <c r="E23">
-        <v>0.398</v>
+        <v>0.25</v>
       </c>
       <c r="F23">
-        <v>0.653</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3221,19 +3221,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.589</v>
+        <v>0.255</v>
       </c>
       <c r="C24">
-        <v>0.323</v>
+        <v>0.311</v>
       </c>
       <c r="D24">
-        <v>0.549</v>
+        <v>0.551</v>
       </c>
       <c r="E24">
-        <v>0.08400000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="F24">
-        <v>0.638</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3241,19 +3241,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.386</v>
+        <v>0.233</v>
       </c>
       <c r="C25">
-        <v>0.074</v>
+        <v>0.168</v>
       </c>
       <c r="D25">
-        <v>0.378</v>
+        <v>0.61</v>
       </c>
       <c r="E25">
-        <v>0.681</v>
+        <v>0.467</v>
       </c>
       <c r="F25">
-        <v>0.661</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3261,19 +3261,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.276</v>
+        <v>0.199</v>
       </c>
       <c r="C26">
-        <v>0.579</v>
+        <v>0.609</v>
       </c>
       <c r="D26">
-        <v>0.511</v>
+        <v>0.165</v>
       </c>
       <c r="E26">
-        <v>0.915</v>
+        <v>0.308</v>
       </c>
       <c r="F26">
-        <v>0.588</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3281,19 +3281,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.364</v>
+        <v>0.207</v>
       </c>
       <c r="C27">
-        <v>0.707</v>
+        <v>0.395</v>
       </c>
       <c r="D27">
-        <v>0.029</v>
+        <v>0.709</v>
       </c>
       <c r="E27">
-        <v>0.056</v>
+        <v>0.552</v>
       </c>
       <c r="F27">
-        <v>0.152</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3301,19 +3301,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="C28">
-        <v>0.183</v>
+        <v>0.383</v>
       </c>
       <c r="D28">
-        <v>0.894</v>
+        <v>0.046</v>
       </c>
       <c r="E28">
-        <v>0.496</v>
+        <v>0.444</v>
       </c>
       <c r="F28">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/TOPSISPSO.xlsx
+++ b/Experimentos2/TOPSISPSO.xlsx
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.389</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.373</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.257</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.469</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.372</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.464</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.409</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.423</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.323</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.514</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.534</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.412</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.551</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.392</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.569</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.515</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.535</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.367</v>
+        <v>0.779</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.469</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.569</v>
+        <v>0.779</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.313</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5679999999999999</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.697</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.517</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.233</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.168</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.77</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -927,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.547</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.345</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.462</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.093</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.206</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.547</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.345</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.462</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.093</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.206</v>
+        <v>0.468</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.082</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.039</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.157</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.082</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.039</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.157</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -1641,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
+        <v>0.339</v>
       </c>
       <c r="C2">
-        <v>0.052</v>
+        <v>0.398</v>
       </c>
       <c r="D2">
-        <v>0.415</v>
+        <v>0.834</v>
       </c>
       <c r="E2">
-        <v>0.802</v>
+        <v>0.192</v>
       </c>
       <c r="F2">
-        <v>0.78</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,19 +1661,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>0.421</v>
       </c>
       <c r="C3">
-        <v>0.183</v>
+        <v>0.134</v>
       </c>
       <c r="D3">
-        <v>0.439</v>
+        <v>0.099</v>
       </c>
       <c r="E3">
-        <v>0.717</v>
+        <v>0.385</v>
       </c>
       <c r="F3">
-        <v>0.674</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1681,19 +1681,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.016</v>
+        <v>0.427</v>
       </c>
       <c r="C4">
-        <v>0.143</v>
+        <v>0.523</v>
       </c>
       <c r="D4">
-        <v>0.588</v>
+        <v>0.359</v>
       </c>
       <c r="E4">
-        <v>0.175</v>
+        <v>0.524</v>
       </c>
       <c r="F4">
-        <v>0.578</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1701,19 +1701,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.28</v>
+        <v>0.992</v>
       </c>
       <c r="C5">
-        <v>0.726</v>
+        <v>0.825</v>
       </c>
       <c r="D5">
-        <v>0.983</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>0.328</v>
+        <v>0.995</v>
       </c>
       <c r="F5">
-        <v>0.725</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1721,19 +1721,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.973</v>
+        <v>0.669</v>
       </c>
       <c r="C6">
-        <v>0.382</v>
+        <v>0.258</v>
       </c>
       <c r="D6">
-        <v>0.771</v>
+        <v>0.354</v>
       </c>
       <c r="E6">
-        <v>0.119</v>
+        <v>0.061</v>
       </c>
       <c r="F6">
-        <v>0.076</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1741,19 +1741,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.661</v>
+        <v>0.981</v>
       </c>
       <c r="C7">
-        <v>0.097</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D7">
-        <v>0.857</v>
+        <v>0.788</v>
       </c>
       <c r="E7">
-        <v>0.638</v>
+        <v>0.028</v>
       </c>
       <c r="F7">
-        <v>0.732</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1761,19 +1761,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.191</v>
+        <v>0.27</v>
       </c>
       <c r="C8">
-        <v>0.9429999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="D8">
-        <v>0.222</v>
+        <v>0.844</v>
       </c>
       <c r="E8">
-        <v>0.417</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F8">
-        <v>0.8100000000000001</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1781,19 +1781,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.214</v>
+        <v>0.966</v>
       </c>
       <c r="C9">
-        <v>0.523</v>
+        <v>0.23</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.056</v>
       </c>
       <c r="E9">
-        <v>0.771</v>
+        <v>0.646</v>
       </c>
       <c r="F9">
-        <v>0.164</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.628</v>
+        <v>0.765</v>
       </c>
       <c r="C10">
-        <v>0.493</v>
+        <v>0.053</v>
       </c>
       <c r="D10">
-        <v>0.052</v>
+        <v>0.844</v>
       </c>
       <c r="E10">
-        <v>0.608</v>
+        <v>0.864</v>
       </c>
       <c r="F10">
-        <v>0.162</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1821,19 +1821,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.042</v>
+        <v>0.237</v>
       </c>
       <c r="C11">
-        <v>0.036</v>
+        <v>0.279</v>
       </c>
       <c r="D11">
-        <v>0.29</v>
+        <v>0.584</v>
       </c>
       <c r="E11">
-        <v>0.5610000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="F11">
-        <v>0.546</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1841,19 +1841,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.173</v>
+        <v>0.292</v>
       </c>
       <c r="C12">
-        <v>0.128</v>
+        <v>0.093</v>
       </c>
       <c r="D12">
-        <v>0.307</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E12">
-        <v>0.502</v>
+        <v>0.27</v>
       </c>
       <c r="F12">
-        <v>0.472</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1861,19 +1861,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.007</v>
+        <v>0.295</v>
       </c>
       <c r="C13">
-        <v>0.099</v>
+        <v>0.365</v>
       </c>
       <c r="D13">
-        <v>0.412</v>
+        <v>0.251</v>
       </c>
       <c r="E13">
-        <v>0.123</v>
+        <v>0.367</v>
       </c>
       <c r="F13">
-        <v>0.405</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1881,19 +1881,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.189</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C14">
-        <v>0.506</v>
+        <v>0.576</v>
       </c>
       <c r="D14">
-        <v>0.6879999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="E14">
-        <v>0.23</v>
+        <v>0.697</v>
       </c>
       <c r="F14">
-        <v>0.507</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1901,19 +1901,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.673</v>
+        <v>0.46</v>
       </c>
       <c r="C15">
-        <v>0.265</v>
+        <v>0.178</v>
       </c>
       <c r="D15">
-        <v>0.54</v>
+        <v>0.248</v>
       </c>
       <c r="E15">
-        <v>0.083</v>
+        <v>0.043</v>
       </c>
       <c r="F15">
-        <v>0.053</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1921,19 +1921,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.452</v>
+        <v>0.676</v>
       </c>
       <c r="C16">
-        <v>0.065</v>
+        <v>0.057</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>0.552</v>
       </c>
       <c r="E16">
-        <v>0.447</v>
+        <v>0.02</v>
       </c>
       <c r="F16">
-        <v>0.512</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1941,19 +1941,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.121</v>
+        <v>0.176</v>
       </c>
       <c r="C17">
-        <v>0.657</v>
+        <v>0.305</v>
       </c>
       <c r="D17">
-        <v>0.155</v>
+        <v>0.591</v>
       </c>
       <c r="E17">
-        <v>0.292</v>
+        <v>0.479</v>
       </c>
       <c r="F17">
-        <v>0.5669999999999999</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1961,19 +1961,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.135</v>
+        <v>0.661</v>
       </c>
       <c r="C18">
-        <v>0.362</v>
+        <v>0.157</v>
       </c>
       <c r="D18">
-        <v>0.699</v>
+        <v>0.039</v>
       </c>
       <c r="E18">
-        <v>0.54</v>
+        <v>0.453</v>
       </c>
       <c r="F18">
-        <v>0.115</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1981,19 +1981,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.423</v>
+        <v>0.519</v>
       </c>
       <c r="C19">
-        <v>0.341</v>
+        <v>0.033</v>
       </c>
       <c r="D19">
-        <v>0.036</v>
+        <v>0.591</v>
       </c>
       <c r="E19">
-        <v>0.426</v>
+        <v>0.605</v>
       </c>
       <c r="F19">
-        <v>0.113</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2001,19 +2001,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.008</v>
+        <v>0.393</v>
       </c>
       <c r="C20">
-        <v>0.041</v>
+        <v>0.351</v>
       </c>
       <c r="D20">
-        <v>0.233</v>
+        <v>0.363</v>
       </c>
       <c r="E20">
-        <v>0.377</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F20">
-        <v>0.259</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2021,19 +2021,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.109</v>
+        <v>0.401</v>
       </c>
       <c r="C21">
-        <v>0.017</v>
+        <v>0.312</v>
       </c>
       <c r="D21">
-        <v>0.243</v>
+        <v>0.044</v>
       </c>
       <c r="E21">
-        <v>0.339</v>
+        <v>0.139</v>
       </c>
       <c r="F21">
-        <v>0.314</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2041,19 +2041,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.035</v>
+        <v>0.398</v>
       </c>
       <c r="C22">
-        <v>0.024</v>
+        <v>0.364</v>
       </c>
       <c r="D22">
-        <v>0.309</v>
+        <v>0.157</v>
       </c>
       <c r="E22">
-        <v>0.091</v>
+        <v>0.186</v>
       </c>
       <c r="F22">
-        <v>0.315</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2061,19 +2061,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.126</v>
+        <v>0.482</v>
       </c>
       <c r="C23">
-        <v>-0.082</v>
+        <v>0.403</v>
       </c>
       <c r="D23">
-        <v>0.482</v>
+        <v>0.175</v>
       </c>
       <c r="E23">
-        <v>0.161</v>
+        <v>0.347</v>
       </c>
       <c r="F23">
-        <v>0.355</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2081,19 +2081,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.55</v>
+        <v>0.427</v>
       </c>
       <c r="C24">
-        <v>-0.02</v>
+        <v>0.322</v>
       </c>
       <c r="D24">
-        <v>0.389</v>
+        <v>0.155</v>
       </c>
       <c r="E24">
-        <v>0.064</v>
+        <v>0.028</v>
       </c>
       <c r="F24">
-        <v>0.217</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2101,19 +2101,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.359</v>
+        <v>0.471</v>
       </c>
       <c r="C25">
-        <v>0.032</v>
+        <v>0.295</v>
       </c>
       <c r="D25">
-        <v>0.427</v>
+        <v>0.344</v>
       </c>
       <c r="E25">
-        <v>0.303</v>
+        <v>0.017</v>
       </c>
       <c r="F25">
-        <v>0.359</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2121,19 +2121,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.07199999999999999</v>
+        <v>0.354</v>
       </c>
       <c r="C26">
-        <v>-0.123</v>
+        <v>0.343</v>
       </c>
       <c r="D26">
-        <v>0.148</v>
+        <v>0.368</v>
       </c>
       <c r="E26">
-        <v>0.202</v>
+        <v>0.241</v>
       </c>
       <c r="F26">
-        <v>0.376</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2141,19 +2141,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.08599999999999999</v>
+        <v>0.459</v>
       </c>
       <c r="C27">
-        <v>-0.046</v>
+        <v>0.311</v>
       </c>
       <c r="D27">
-        <v>0.488</v>
+        <v>0.026</v>
       </c>
       <c r="E27">
-        <v>0.364</v>
+        <v>0.228</v>
       </c>
       <c r="F27">
-        <v>0.237</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2161,19 +2161,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.339</v>
+        <v>0.424</v>
       </c>
       <c r="C28">
-        <v>-0.041</v>
+        <v>0.284</v>
       </c>
       <c r="D28">
-        <v>0.074</v>
+        <v>0.368</v>
       </c>
       <c r="E28">
-        <v>0.289</v>
+        <v>0.302</v>
       </c>
       <c r="F28">
-        <v>0.238</v>
+        <v>0.429</v>
       </c>
     </row>
   </sheetData>
@@ -2391,19 +2391,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.138</v>
+        <v>0.333</v>
       </c>
       <c r="C11">
-        <v>0.083</v>
+        <v>0.326</v>
       </c>
       <c r="D11">
-        <v>0.301</v>
+        <v>0.595</v>
       </c>
       <c r="E11">
-        <v>0.591</v>
+        <v>0.164</v>
       </c>
       <c r="F11">
-        <v>0.831</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2411,19 +2411,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.279</v>
+        <v>0.398</v>
       </c>
       <c r="C12">
-        <v>0.18</v>
+        <v>0.145</v>
       </c>
       <c r="D12">
-        <v>0.317</v>
+        <v>0.079</v>
       </c>
       <c r="E12">
-        <v>0.53</v>
+        <v>0.298</v>
       </c>
       <c r="F12">
-        <v>0.5590000000000001</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2431,19 +2431,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.121</v>
+        <v>0.409</v>
       </c>
       <c r="C13">
-        <v>0.156</v>
+        <v>0.422</v>
       </c>
       <c r="D13">
-        <v>0.422</v>
+        <v>0.261</v>
       </c>
       <c r="E13">
-        <v>0.15</v>
+        <v>0.394</v>
       </c>
       <c r="F13">
-        <v>0.438</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2451,19 +2451,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.313</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C14">
-        <v>0.5679999999999999</v>
+        <v>0.638</v>
       </c>
       <c r="D14">
-        <v>0.697</v>
+        <v>0.289</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>0.717</v>
       </c>
       <c r="F14">
-        <v>0.517</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2471,19 +2471,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.805</v>
+        <v>0.592</v>
       </c>
       <c r="C15">
-        <v>0.331</v>
+        <v>0.244</v>
       </c>
       <c r="D15">
-        <v>0.551</v>
+        <v>0.259</v>
       </c>
       <c r="E15">
-        <v>0.113</v>
+        <v>0.073</v>
       </c>
       <c r="F15">
-        <v>0.059</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2491,19 +2491,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.592</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C16">
-        <v>0.136</v>
+        <v>0.128</v>
       </c>
       <c r="D16">
-        <v>0.61</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="E16">
-        <v>0.467</v>
+        <v>0.04</v>
       </c>
       <c r="F16">
-        <v>0.516</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2511,19 +2511,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.271</v>
+        <v>0.326</v>
       </c>
       <c r="C17">
-        <v>0.732</v>
+        <v>0.38</v>
       </c>
       <c r="D17">
-        <v>0.165</v>
+        <v>0.601</v>
       </c>
       <c r="E17">
-        <v>0.308</v>
+        <v>0.495</v>
       </c>
       <c r="F17">
-        <v>0.57</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2531,19 +2531,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.293</v>
+        <v>0.819</v>
       </c>
       <c r="C18">
-        <v>0.441</v>
+        <v>0.236</v>
       </c>
       <c r="D18">
-        <v>0.709</v>
+        <v>0.049</v>
       </c>
       <c r="E18">
-        <v>0.552</v>
+        <v>0.465</v>
       </c>
       <c r="F18">
-        <v>0.118</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2551,19 +2551,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.589</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C19">
-        <v>0.424</v>
+        <v>0.116</v>
       </c>
       <c r="D19">
-        <v>0.046</v>
+        <v>0.601</v>
       </c>
       <c r="E19">
-        <v>0.444</v>
+        <v>0.623</v>
       </c>
       <c r="F19">
-        <v>0.113</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2571,16 +2571,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.146</v>
+        <v>0.726</v>
       </c>
       <c r="C20">
-        <v>0.124</v>
+        <v>0.677</v>
       </c>
       <c r="D20">
-        <v>0.534</v>
+        <v>0.958</v>
       </c>
       <c r="E20">
-        <v>0.968</v>
+        <v>0.236</v>
       </c>
       <c r="F20">
         <v>0.8</v>
@@ -2591,19 +2591,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.17</v>
+        <v>0.799</v>
       </c>
       <c r="C21">
-        <v>0.197</v>
+        <v>0.457</v>
       </c>
       <c r="D21">
-        <v>0.5600000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="E21">
-        <v>0.869</v>
+        <v>0.437</v>
       </c>
       <c r="F21">
-        <v>0.873</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2611,19 +2611,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.156</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="C22">
-        <v>0.18</v>
+        <v>0.786</v>
       </c>
       <c r="D22">
-        <v>0.731</v>
+        <v>0.418</v>
       </c>
       <c r="E22">
-        <v>0.241</v>
+        <v>0.58</v>
       </c>
       <c r="F22">
-        <v>0.753</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2631,19 +2631,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.187</v>
+        <v>0.8</v>
       </c>
       <c r="C23">
-        <v>0.486</v>
+        <v>0.8</v>
       </c>
       <c r="D23">
+        <v>0.464</v>
+      </c>
+      <c r="E23">
         <v>0.8</v>
       </c>
-      <c r="E23">
-        <v>0.411</v>
-      </c>
       <c r="F23">
-        <v>0.872</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2651,19 +2651,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.255</v>
+        <v>0.8</v>
       </c>
       <c r="C24">
-        <v>0.311</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D24">
-        <v>0.9399999999999999</v>
+        <v>0.414</v>
       </c>
       <c r="E24">
-        <v>0.177</v>
+        <v>0.101</v>
       </c>
       <c r="F24">
-        <v>0.276</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2671,19 +2671,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.233</v>
+        <v>0.8</v>
       </c>
       <c r="C25">
-        <v>0.168</v>
+        <v>0.423</v>
       </c>
       <c r="D25">
-        <v>0.8</v>
+        <v>0.906</v>
       </c>
       <c r="E25">
-        <v>0.77</v>
+        <v>0.057</v>
       </c>
       <c r="F25">
-        <v>0.875</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2691,19 +2691,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.199</v>
+        <v>0.68</v>
       </c>
       <c r="C26">
-        <v>0.609</v>
+        <v>0.723</v>
       </c>
       <c r="D26">
-        <v>0.313</v>
+        <v>0.969</v>
       </c>
       <c r="E26">
-        <v>0.51</v>
+        <v>0.736</v>
       </c>
       <c r="F26">
-        <v>0.946</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2711,19 +2711,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.207</v>
+        <v>0.8</v>
       </c>
       <c r="C27">
-        <v>0.395</v>
+        <v>0.547</v>
       </c>
       <c r="D27">
-        <v>0.8</v>
+        <v>0.075</v>
       </c>
       <c r="E27">
-        <v>0.916</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="F27">
-        <v>0.355</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2731,19 +2731,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="C28">
-        <v>0.383</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
-        <v>0.12</v>
+        <v>0.969</v>
       </c>
       <c r="E28">
-        <v>0.733</v>
+        <v>0.925</v>
       </c>
       <c r="F28">
-        <v>0.351</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -2961,19 +2961,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.096</v>
+        <v>0.333</v>
       </c>
       <c r="C11">
-        <v>0.047</v>
+        <v>0.326</v>
       </c>
       <c r="D11">
-        <v>0.301</v>
+        <v>0.011</v>
       </c>
       <c r="E11">
-        <v>0.591</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <v>0.831</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2981,19 +2981,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.106</v>
+        <v>0.398</v>
       </c>
       <c r="C12">
-        <v>0.052</v>
+        <v>0.145</v>
       </c>
       <c r="D12">
-        <v>0.317</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <v>0.53</v>
+        <v>0.028</v>
       </c>
       <c r="F12">
-        <v>0.5590000000000001</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3001,19 +3001,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.114</v>
+        <v>0.409</v>
       </c>
       <c r="C13">
-        <v>0.057</v>
+        <v>0.422</v>
       </c>
       <c r="D13">
-        <v>0.422</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
-        <v>0.15</v>
+        <v>0.027</v>
       </c>
       <c r="F13">
-        <v>0.438</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3021,19 +3021,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.124</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C14">
-        <v>0.062</v>
+        <v>0.638</v>
       </c>
       <c r="D14">
-        <v>0.697</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="F14">
-        <v>0.517</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3041,19 +3041,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.132</v>
+        <v>0.592</v>
       </c>
       <c r="C15">
-        <v>0.066</v>
+        <v>0.244</v>
       </c>
       <c r="D15">
-        <v>0.551</v>
+        <v>0.011</v>
       </c>
       <c r="E15">
-        <v>0.113</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
-        <v>0.059</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3061,19 +3061,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.14</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C16">
-        <v>0.07099999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="D16">
-        <v>0.61</v>
+        <v>0.01</v>
       </c>
       <c r="E16">
-        <v>0.467</v>
+        <v>0.02</v>
       </c>
       <c r="F16">
-        <v>0.516</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3081,19 +3081,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.15</v>
+        <v>0.326</v>
       </c>
       <c r="C17">
-        <v>0.075</v>
+        <v>0.38</v>
       </c>
       <c r="D17">
-        <v>0.165</v>
+        <v>0.01</v>
       </c>
       <c r="E17">
-        <v>0.308</v>
+        <v>0.016</v>
       </c>
       <c r="F17">
-        <v>0.57</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3101,19 +3101,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.158</v>
+        <v>0.819</v>
       </c>
       <c r="C18">
-        <v>0.079</v>
+        <v>0.236</v>
       </c>
       <c r="D18">
-        <v>0.709</v>
+        <v>0.01</v>
       </c>
       <c r="E18">
-        <v>0.552</v>
+        <v>0.012</v>
       </c>
       <c r="F18">
-        <v>0.118</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3121,19 +3121,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.166</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C19">
-        <v>0.083</v>
+        <v>0.116</v>
       </c>
       <c r="D19">
-        <v>0.046</v>
+        <v>0.01</v>
       </c>
       <c r="E19">
-        <v>0.444</v>
+        <v>0.018</v>
       </c>
       <c r="F19">
-        <v>0.113</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3141,19 +3141,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.146</v>
+        <v>0.333</v>
       </c>
       <c r="C20">
-        <v>0.124</v>
+        <v>0.326</v>
       </c>
       <c r="D20">
-        <v>0.301</v>
+        <v>0.958</v>
       </c>
       <c r="E20">
-        <v>0.591</v>
+        <v>0.236</v>
       </c>
       <c r="F20">
-        <v>0.831</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3161,19 +3161,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.17</v>
+        <v>0.398</v>
       </c>
       <c r="C21">
-        <v>0.197</v>
+        <v>0.145</v>
       </c>
       <c r="D21">
-        <v>0.317</v>
+        <v>0.123</v>
       </c>
       <c r="E21">
-        <v>0.53</v>
+        <v>0.437</v>
       </c>
       <c r="F21">
-        <v>0.5590000000000001</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3181,19 +3181,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.156</v>
+        <v>0.409</v>
       </c>
       <c r="C22">
-        <v>0.18</v>
+        <v>0.422</v>
       </c>
       <c r="D22">
-        <v>0.422</v>
+        <v>0.418</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>0.58</v>
       </c>
       <c r="F22">
-        <v>0.438</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3201,19 +3201,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.187</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C23">
-        <v>0.486</v>
+        <v>0.638</v>
       </c>
       <c r="D23">
-        <v>0.697</v>
+        <v>0.464</v>
       </c>
       <c r="E23">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F23">
-        <v>0.517</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3221,19 +3221,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.255</v>
+        <v>0.592</v>
       </c>
       <c r="C24">
-        <v>0.311</v>
+        <v>0.244</v>
       </c>
       <c r="D24">
-        <v>0.551</v>
+        <v>0.414</v>
       </c>
       <c r="E24">
-        <v>0.113</v>
+        <v>0.101</v>
       </c>
       <c r="F24">
-        <v>0.059</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3241,19 +3241,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.233</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C25">
-        <v>0.168</v>
+        <v>0.128</v>
       </c>
       <c r="D25">
-        <v>0.61</v>
+        <v>0.906</v>
       </c>
       <c r="E25">
-        <v>0.467</v>
+        <v>0.057</v>
       </c>
       <c r="F25">
-        <v>0.516</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3261,19 +3261,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.199</v>
+        <v>0.326</v>
       </c>
       <c r="C26">
-        <v>0.609</v>
+        <v>0.38</v>
       </c>
       <c r="D26">
-        <v>0.165</v>
+        <v>0.969</v>
       </c>
       <c r="E26">
-        <v>0.308</v>
+        <v>0.736</v>
       </c>
       <c r="F26">
-        <v>0.57</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3281,19 +3281,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.207</v>
+        <v>0.819</v>
       </c>
       <c r="C27">
-        <v>0.395</v>
+        <v>0.236</v>
       </c>
       <c r="D27">
-        <v>0.709</v>
+        <v>0.075</v>
       </c>
       <c r="E27">
-        <v>0.552</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="F27">
-        <v>0.118</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3301,19 +3301,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.25</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C28">
-        <v>0.383</v>
+        <v>0.116</v>
       </c>
       <c r="D28">
-        <v>0.046</v>
+        <v>0.969</v>
       </c>
       <c r="E28">
-        <v>0.444</v>
+        <v>0.925</v>
       </c>
       <c r="F28">
-        <v>0.113</v>
+        <v>0.608</v>
       </c>
     </row>
   </sheetData>
